--- a/testData/time_rule_test_data.xlsx
+++ b/testData/time_rule_test_data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8376"/>
   </bookViews>
   <sheets>
     <sheet name="add_time_rule" sheetId="3" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="query_time_rule" sheetId="7" r:id="rId4"/>
     <sheet name="del_time_rule" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="115">
   <si>
     <t>测试点说明</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -334,10 +334,6 @@
   </si>
   <si>
     <t>cyyj</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cyyk</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -973,36 +969,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XDW6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" style="2" customWidth="1"/>
     <col min="10" max="10" width="9" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" style="2" customWidth="1"/>
     <col min="13" max="13" width="18" style="2" customWidth="1"/>
-    <col min="14" max="15" width="15.625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="52.625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="24.625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="15.625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="12.25" style="2" customWidth="1"/>
-    <col min="20" max="20" width="11.25" style="2" customWidth="1"/>
-    <col min="21" max="21" width="39.125" style="3" customWidth="1"/>
+    <col min="14" max="15" width="15.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="52.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="24.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="15.6640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="12.21875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="11.21875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="39.109375" style="3" customWidth="1"/>
     <col min="22" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16351" s="1" customFormat="1" ht="18.75">
+    <row r="1" spans="1:16351" s="1" customFormat="1" ht="17.399999999999999">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1069,13 +1065,13 @@
     </row>
     <row r="2" spans="1:16351">
       <c r="A2" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>15</v>
@@ -1100,19 +1096,19 @@
         <v>36</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N2" s="16" t="s">
         <v>76</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="9">
@@ -1130,13 +1126,13 @@
     </row>
     <row r="3" spans="1:16351">
       <c r="A3" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>15</v>
@@ -1164,13 +1160,13 @@
         <v>25</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N3" s="16" t="s">
         <v>77</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>37</v>
@@ -17521,13 +17517,13 @@
     </row>
     <row r="4" spans="1:16351">
       <c r="A4" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>15</v>
@@ -17552,19 +17548,19 @@
         <v>36</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N4" s="16" t="s">
         <v>78</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="9">
@@ -17582,13 +17578,13 @@
     </row>
     <row r="5" spans="1:16351">
       <c r="A5" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>15</v>
@@ -17616,13 +17612,13 @@
         <v>38</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N5" s="16" t="s">
         <v>79</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>40</v>
@@ -17643,13 +17639,13 @@
     </row>
     <row r="6" spans="1:16351">
       <c r="A6" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>15</v>
@@ -17677,13 +17673,13 @@
         <v>39</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>41</v>
@@ -17693,7 +17689,7 @@
         <v>2</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="T6" s="9">
         <v>1</v>
@@ -17713,26 +17709,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="4" max="4" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="7" width="11.75" customWidth="1"/>
-    <col min="8" max="8" width="7.25" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="17.75" customWidth="1"/>
-    <col min="11" max="11" width="10.75" customWidth="1"/>
-    <col min="12" max="12" width="9.75" customWidth="1"/>
-    <col min="13" max="13" width="11.75" customWidth="1"/>
-    <col min="14" max="14" width="6.5" customWidth="1"/>
-    <col min="15" max="15" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="7.21875" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" customWidth="1"/>
+    <col min="14" max="14" width="6.44140625" customWidth="1"/>
+    <col min="15" max="15" width="18.88671875" customWidth="1"/>
     <col min="16" max="16" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17788,16 +17784,16 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>18</v>
@@ -17827,10 +17823,10 @@
         <v>45</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>49</v>
@@ -17847,26 +17843,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="107.25" customWidth="1"/>
-    <col min="3" max="3" width="6.625" customWidth="1"/>
-    <col min="4" max="4" width="8.625" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="11.125" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="9.125" customWidth="1"/>
-    <col min="10" max="10" width="11.375" customWidth="1"/>
-    <col min="12" max="12" width="41.125" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="107.21875" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="41.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="18.75">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="17.399999999999999">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -18062,10 +18058,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9"/>
@@ -18077,18 +18073,18 @@
         <v>20</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="27">
+    <row r="10" spans="1:12" ht="28.8">
       <c r="A10" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -18100,13 +18096,13 @@
         <v>20</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -18127,11 +18123,11 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.25" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="8" customWidth="1"/>
-    <col min="3" max="3" width="33.125" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1">
@@ -18147,10 +18143,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>71</v>
@@ -18158,10 +18154,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>71</v>
@@ -18201,12 +18197,12 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.625" customWidth="1"/>
-    <col min="2" max="2" width="23.25" customWidth="1"/>
-    <col min="3" max="3" width="5.875" customWidth="1"/>
-    <col min="4" max="4" width="26.125" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -18237,13 +18233,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>74</v>
@@ -18251,13 +18247,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>74</v>
@@ -18265,13 +18261,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>74</v>
@@ -18279,13 +18275,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>74</v>
@@ -18299,7 +18295,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>74</v>
